--- a/gams/sumSum_Q_RL_out.xlsx
+++ b/gams/sumSum_Q_RL_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05663B1F-BCFF-4644-807C-6043B2F961E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F51C39-03B3-4CDD-9C50-F2559EB7FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{8AB477EC-E931-4346-ACD4-C4F7813C3103}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{8AB477EC-E931-4346-ACD4-C4F7813C3103}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/sumSum_Q_RL_out.xlsx
+++ b/gams/sumSum_Q_RL_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F51C39-03B3-4CDD-9C50-F2559EB7FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCAA7F-DDF8-4B49-89DC-C372590E64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{8AB477EC-E931-4346-ACD4-C4F7813C3103}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8AB477EC-E931-4346-ACD4-C4F7813C3103}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
